--- a/Location Details/Visionary Way, Fishers, IN 46038_festivals.xlsx
+++ b/Location Details/Visionary Way, Fishers, IN 46038_festivals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -487,40 +487,40 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Carmel International Arts Festival</t>
+          <t>Arts for Lawrence</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Carmel International Arts Festival</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E4" t="n">
         <v>18</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Celebration Plaza Amphitheater</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -529,14 +529,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Conner Prairie</t>
+          <t>Celebration Plaza Amphitheater</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>4.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1570</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -613,19 +613,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fishers Farmers' Market</t>
+          <t>Free Stage</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="E9" t="n">
-        <v>239</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -739,19 +739,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Indiana Latino Expo</t>
+          <t>Indianapolis Auto Show</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -760,19 +760,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Indiana State Fairgrounds &amp; Event Center</t>
+          <t>Indianapolis Jewish Film Festival</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -781,19 +781,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Indianapolis Auto Show</t>
+          <t>Indianapolis Zoo</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>51</v>
+        <v>14982</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -802,19 +802,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Indianapolis Jewish Film Festival</t>
+          <t>Indy Taco Fest</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -823,19 +823,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Indianapolis Motor Speedway</t>
+          <t>IndyFringe Theatre</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="E19" t="n">
-        <v>11013</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -844,19 +844,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Indianapolis Zoo</t>
+          <t>Irvington Halloween Festival</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E20" t="n">
-        <v>14979</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -865,19 +865,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Indy Taco Fest</t>
+          <t>Lights Over Seminary</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -886,19 +886,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>IndyFringe Theatre</t>
+          <t>Lourdes Lyons Chili Cook-Off</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -907,19 +907,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Irvington Halloween Festival</t>
+          <t>MasterWorks Festival</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -928,19 +928,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lights Over Seminary</t>
+          <t>Military Park</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -949,19 +949,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lourdes Lyons Chili Cook-Off</t>
+          <t>Nickel Plate District Amphitheater</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MasterWorks Festival</t>
+          <t>Pendleton Fall Creek Heritage Fair</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -982,7 +982,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -991,19 +991,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Military Park</t>
+          <t>Riley Festival</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="E27" t="n">
-        <v>1512</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1012,19 +1012,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nickel Plate District Amphitheater</t>
+          <t>Spirit &amp; Place Festival</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1033,19 +1033,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pendleton Fall Creek Heritage Fair</t>
+          <t>St Louis de Montfort Fall Festival</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Riley Festival</t>
+          <t>St. Christopher Mid-Summer Festival</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E30" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1075,19 +1075,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ruoff Music Center</t>
+          <t>Stonycreek Farm Presents: HauntFest</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>8285</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1096,19 +1096,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Spirit &amp; Place Festival</t>
+          <t>Talbot Street Art Fair</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1117,19 +1117,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>St Louis de Montfort Fall Festival</t>
+          <t>Wild Blackberry Farms</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1138,97 +1138,13 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>St. Christopher Mid-Summer Festival</t>
+          <t>indianapolis greek fest</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Stonycreek Farm Presents: HauntFest</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Talbot Street Art Fair</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Wild Blackberry Farms</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>indianapolis greek fest</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E38" t="n">
         <v>19</v>
       </c>
     </row>
